--- a/biology/Zoologie/Caconemobius/Caconemobius.xlsx
+++ b/biology/Zoologie/Caconemobius/Caconemobius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caconemobius est un genre de grillons de la sous-famille des Nemobiinae. Il en existe une dizaine d'espèces réparties des côtes du Pacifique de l'Asie à Hawaï, où elles sont présentes dans des environnements marins sur les rives de l'océan Pacifique[2].
-Ce sont des grillons sans ailes qui ne chantent pas. Ils ont des abdomens bulbeux. Ils vivent parmi les rochers sur les plages et autres environnements marins où ils peuvent nager et plonger dans les eaux salines[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caconemobius est un genre de grillons de la sous-famille des Nemobiinae. Il en existe une dizaine d'espèces réparties des côtes du Pacifique de l'Asie à Hawaï, où elles sont présentes dans des environnements marins sur les rives de l'océan Pacifique.
+Ce sont des grillons sans ailes qui ne chantent pas. Ils ont des abdomens bulbeux. Ils vivent parmi les rochers sur les plages et autres environnements marins où ils peuvent nager et plonger dans les eaux salines.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File  (25 mars 2021)[1][3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File  (25 mars 2021) :
 Caconemobius albus Otte, 1994
 Caconemobius anahulu Otte, 1994
 Caconemobius fori Gurney &amp; Rentz, 1978
